--- a/biology/Zoologie/Beierius_walliskewi/Beierius_walliskewi.xlsx
+++ b/biology/Zoologie/Beierius_walliskewi/Beierius_walliskewi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beierius walliskewi est une espèce de pseudoscorpions de la famille des Cheliferidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, au Lesotho et au Kenya[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, au Lesotho et au Kenya.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3,86 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3,86 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Pseudoscorpions of the World (version 3.0)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Pseudoscorpions of the World (version 3.0) :
 Beierius walliskewi legrandi (Vachon, 1939)
 Beierius walliskewi longipes Beier, 1955
 Beierius walliskewi walliskewi (Ellingsen, 1912)</t>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Harry Wallis Kew[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Harry Wallis Kew.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ellingsen, 1912 : The pseudoscorpions of South Africa, based on the collections of the South African Museum, Cape Town. Annals of the South African Museum, vol. 10, p. 75-128 (texte intégral).
 Vachon, 1939 : Remarques sur le genre Dactylochelifer Beier, à propos d'une espèce nouvelle de Pseudoscorpions: Dactylochelifer legrandi. Bulletin Scientifique de Bourgogne, vol. 8, p. 155-159.
